--- a/SEVA_Plasmids/V1/Corrupted_SEVA_Plasmid_Dataset_V1/JX560361/JX560361_mutations.xlsx
+++ b/SEVA_Plasmids/V1/Corrupted_SEVA_Plasmid_Dataset_V1/JX560361/JX560361_mutations.xlsx
@@ -534,7 +534,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>45438.89333141631</v>
+        <v>45441.83357930866</v>
       </c>
     </row>
     <row r="3">
@@ -545,7 +545,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['1745_1745del']</t>
+          <t>['1535_1574inscagctgcggactcacctataacttagttctgtgccctga', '1677_1780del', '1554_1569del', '1566_1655del', '1638_1678instctcctgatgggtttgaggtatataaactcttcggttctt']</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -568,16 +568,16 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>45438.89333147411</v>
+        <v>45441.83357933757</v>
       </c>
     </row>
     <row r="4">
@@ -593,7 +593,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['616_619del']</t>
+          <t>['616_744insatgtaggttcgctgcaatgcgagttgtgacgtgctgtgggaacggcagtccaagcaccagcttcttaaggtacggagtgggtttccattagtagtctgctatataacgccggaatactctactttgtg', '675_822insgattagaatactagctttggccctgcttgacccagtacccagccgatttgaccgcgaatatcgtaaaagagggactaagtccttctgtatcccgcgccccgtagattgcagtgatctaggagggattctctatccacggtctaagac', '690_831del', '697_725del', '638_721inscacttctcggcttgtggttcaaggccgagtgaaagagaataactatagcactaccattgtcaggggtgaaccgcatccgagta']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -611,16 +611,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>45438.89333150306</v>
+        <v>45441.8335793665</v>
       </c>
     </row>
     <row r="5">
@@ -641,7 +641,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['3799_3800del']</t>
+          <t>['3855_3931instaacacttatgttggcctgcgtttctgtccatgcatttttcgtcacctaggagcgtcctcccacaggtcccgtcaa', '3765_3805insgtttgggccgtacgtgtacgcctggggagagactactgca', '3781_3820del', '3862_3878del', '3846_3877inscagccctcggcggaggggtgtttggacggtg']</t>
         </is>
       </c>
       <c r="E5" t="b">
@@ -654,16 +654,16 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>45438.89333153202</v>
+        <v>45441.83357939546</v>
       </c>
     </row>
     <row r="6">
@@ -674,12 +674,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['1594_1595del']</t>
+          <t>['1556_1692del', '1674_1800del', '1569_1658del', '1741_1765del', '1668_1815del']</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['640t&gt;a']</t>
+          <t>['620_650insccggaatctatggtgtaaaccctggccaca', '619_752del', '701_769del', '699_825insgtcggatgtcagtgccccaggcactgatcccagcgtgttttcgattggccctacaatgaatgcggttaccgtatggccaatctacagtcctatcggttcgttgacagtcggccgcagcgccaggcg', '661_694del']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -697,16 +697,16 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>45438.89333156688</v>
+        <v>45441.83357941257</v>
       </c>
     </row>
     <row r="7">
@@ -717,7 +717,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['1638_1642del']</t>
+          <t>['1675_1805insataagaaaggtacgaaacaccttcgacctggatgtagcccttcacggccaaggcacacagattattagcctttcgtgcctatagatcagtgaggggcgcgaccgggatgagggacctattgtctttgctg', '1693_1828del', '1581_1728del', '1641_1664del', '1746_1841del']</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -727,7 +727,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>['3762_3762del']</t>
+          <t>['3816_3942del', '3830_3910insccctagactccgaggacctggcgggacgatagttgtcccatgctctggcaacccctgactacatattccgattgcgagca', '3769_3917del', '3818_3920del', '3788_3879insccgaggttgaacaggtttggcggccgtcaagcagatctacaatggcgaaataggtggcactcgccaggcgggctggtggtgcactgggagc']</t>
         </is>
       </c>
       <c r="E7" t="b">
@@ -740,16 +740,16 @@
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>45438.89333159</v>
+        <v>45441.83357944019</v>
       </c>
     </row>
     <row r="8">
@@ -765,12 +765,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['652t&gt;g']</t>
+          <t>['603_735insgcccaagcgataccttagacgtaatggctcgaaatggtgcgagcgcagttaaaaccgaactactaggggaacttctttcgatgggtcagcgcattggggcgttgcggtaatccctgtttcacgcacatacga', '703_740instgtcgggatggtactacgggtcgagggagagacgcaa', '677_813del', '626_766del', '646_687insggaagtccgccggttggcgagtaaacccgcgtaggactttt']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>['3830_3834insgtaa']</t>
+          <t>['3778_3907del', '3762_3774del', '3777_3888del', '3805_3942del', '3861_3964insactcgtttagtgtactacaccgcttggacctcgttaaacatgacctttgtgctttcgaccgctactgggtcgcgtagaaattgtaggggcactcgacgctccg']</t>
         </is>
       </c>
       <c r="E8" t="b">
@@ -783,16 +783,16 @@
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J8" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>45438.89333161316</v>
+        <v>45441.83357947269</v>
       </c>
     </row>
     <row r="9">
@@ -803,17 +803,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['1703t&gt;g']</t>
+          <t>['1626_1705inscacgaccacatgaagtaattaaattccggattgctcttgaaatagatcgagcggaacccagatatcaacatgacaggtg', '1740_1774del', '1637_1764inscaacccgccgggtaagtatgctaccgtcagtcacaatgagcttgcttgaagaacatacgccaaatcgcgcaatcgctctacttttggagcttaccagtacattatgagcagactgccaggcaaatcg', '1662_1749insaagccctctactagaaatctgaaactttagtttaccttaaactccctctgcgtcttgaccaaaagcattaagttggcagcgatagta', '1532_1555del']</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['605a&gt;g']</t>
+          <t>['674_731insactgtagtgccctctagcacggggaggtgggtactagtatcctaacttgacggcttt', '653_767del', '619_674del', '683_696del', '665_807del']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>['3856_3861inscgagg']</t>
+          <t>['3844_3859insctgacagctgattag', '3811_3838del', '3767_3819del', '3817_3827insacttcaccgt', '3788_3802inscaccggcgaatggt']</t>
         </is>
       </c>
       <c r="E9" t="b">
@@ -826,16 +826,16 @@
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>45438.8933316421</v>
+        <v>45441.83357949583</v>
       </c>
     </row>
   </sheetData>
